--- a/data/trans_orig/P50_1-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P50_1-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>20982</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12239</v>
+        <v>12735</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32762</v>
+        <v>31997</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02788987244567513</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01626827222842569</v>
+        <v>0.01692787451748613</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04354802396763643</v>
+        <v>0.04253118961313435</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -763,19 +763,19 @@
         <v>15067</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8953</v>
+        <v>8087</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25353</v>
+        <v>23824</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03260325762885453</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01937372782307802</v>
+        <v>0.01749890681953425</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05485902954222188</v>
+        <v>0.05155203341592098</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>33</v>
@@ -784,19 +784,19 @@
         <v>36050</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25867</v>
+        <v>25308</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>52843</v>
+        <v>49969</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02968345660104349</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02129884057056337</v>
+        <v>0.02083901597409506</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04351096093936533</v>
+        <v>0.04114462346364368</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>27018</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>18270</v>
+        <v>17499</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>39635</v>
+        <v>39270</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03591246504697395</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02428482324382622</v>
+        <v>0.02325929915052148</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05268283699403213</v>
+        <v>0.05219758885793437</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -834,19 +834,19 @@
         <v>11443</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6148</v>
+        <v>6225</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19022</v>
+        <v>19798</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02476175471258105</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01330301685643555</v>
+        <v>0.01347002249171528</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04115999715376191</v>
+        <v>0.04283962373883123</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>36</v>
@@ -855,19 +855,19 @@
         <v>38461</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>28286</v>
+        <v>27625</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>52944</v>
+        <v>52289</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03166928597299498</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02329096884714904</v>
+        <v>0.02274672229270735</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04359427412569308</v>
+        <v>0.0430553714692775</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>20146</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12949</v>
+        <v>12469</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>31848</v>
+        <v>30146</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02677791325741785</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01721229318706046</v>
+        <v>0.01657428260963714</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04233320801061641</v>
+        <v>0.04007008315089507</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -905,19 +905,19 @@
         <v>7663</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3020</v>
+        <v>3183</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14346</v>
+        <v>14766</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01658206702775133</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.006534298973022266</v>
+        <v>0.006887490632496072</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0310428048389195</v>
+        <v>0.03195225856218169</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>26</v>
@@ -926,19 +926,19 @@
         <v>27809</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>18522</v>
+        <v>19046</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>41007</v>
+        <v>40927</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02289808855873566</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01525129274145585</v>
+        <v>0.01568253017397173</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03376514893056519</v>
+        <v>0.03369974780046434</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>684179</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>667331</v>
+        <v>667276</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>699071</v>
+        <v>699502</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9094197492499331</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8870247862017409</v>
+        <v>0.8869515231144413</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9292142757634401</v>
+        <v>0.9297871345578009</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>393</v>
@@ -976,19 +976,19 @@
         <v>427966</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>414929</v>
+        <v>415683</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>438245</v>
+        <v>437875</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9260529206308131</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8978436147142635</v>
+        <v>0.8994748527825702</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9482941281430923</v>
+        <v>0.9474936086052697</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1037</v>
@@ -997,19 +997,19 @@
         <v>1112145</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1090358</v>
+        <v>1090847</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1130789</v>
+        <v>1130977</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9157491688672259</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8978089127310721</v>
+        <v>0.898211994381504</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9311008242336973</v>
+        <v>0.9312553603992088</v>
       </c>
     </row>
     <row r="8">
@@ -1101,19 +1101,19 @@
         <v>13840</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7937</v>
+        <v>7867</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>22833</v>
+        <v>22640</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01862064584942268</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01067834525116152</v>
+        <v>0.01058459486886985</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03071931967729104</v>
+        <v>0.030459817270842</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6859</v>
+        <v>7137</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.004291765852771731</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01464773224998726</v>
+        <v>0.01524335495000504</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>16</v>
@@ -1143,19 +1143,19 @@
         <v>15850</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>9725</v>
+        <v>10008</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>25913</v>
+        <v>25565</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01308275122044077</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.008027062699800016</v>
+        <v>0.00826086467637588</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02138872588755289</v>
+        <v>0.02110191291054073</v>
       </c>
     </row>
     <row r="10">
@@ -1172,19 +1172,19 @@
         <v>26507</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17661</v>
+        <v>18059</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>37593</v>
+        <v>38070</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03566214189795164</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02376062155522844</v>
+        <v>0.02429616866838743</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05057718955945038</v>
+        <v>0.05121867616294538</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1193,19 +1193,19 @@
         <v>7295</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3165</v>
+        <v>3061</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14206</v>
+        <v>14582</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0155795523283683</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006760400572871994</v>
+        <v>0.006536330450526164</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03034070033435787</v>
+        <v>0.03114307911227446</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>33</v>
@@ -1214,19 +1214,19 @@
         <v>33802</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22948</v>
+        <v>24545</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>47076</v>
+        <v>47343</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02790052585123775</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01894135766581804</v>
+        <v>0.02025982420401347</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03885753866218493</v>
+        <v>0.03907712847243745</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>27854</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>18870</v>
+        <v>18393</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>40902</v>
+        <v>41233</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03747493911001828</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02538738869138556</v>
+        <v>0.02474619004525885</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05502886934891143</v>
+        <v>0.05547391856293701</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>10</v>
@@ -1264,19 +1264,19 @@
         <v>10153</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5202</v>
+        <v>4953</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>18303</v>
+        <v>18389</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02168393807046011</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01110999707146672</v>
+        <v>0.01057703260821262</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03908862698590111</v>
+        <v>0.0392740896804693</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>37</v>
@@ -1285,19 +1285,19 @@
         <v>38008</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>26628</v>
+        <v>27162</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>50597</v>
+        <v>52368</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03137195689063643</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02197910189066794</v>
+        <v>0.02241949494387291</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04176309215877148</v>
+        <v>0.04322481395861266</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>675081</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>658433</v>
+        <v>655719</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>689666</v>
+        <v>688092</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9082422731426074</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8858442768000396</v>
+        <v>0.8821925088082524</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9278644542459193</v>
+        <v>0.9257463978149827</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>414</v>
@@ -1335,19 +1335,19 @@
         <v>448774</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>438818</v>
+        <v>439075</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>455943</v>
+        <v>456945</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9584447437483998</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9371813832452377</v>
+        <v>0.9377288650775268</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9737534712007003</v>
+        <v>0.9758937474793224</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1055</v>
@@ -1356,19 +1356,19 @@
         <v>1123856</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1105931</v>
+        <v>1105229</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1140574</v>
+        <v>1139475</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9276447660376851</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9128497136081548</v>
+        <v>0.9122700213094409</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9414441858172073</v>
+        <v>0.9405370911600422</v>
       </c>
     </row>
     <row r="13">
@@ -1460,19 +1460,19 @@
         <v>14180</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8091</v>
+        <v>8215</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>23339</v>
+        <v>24244</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02017961534709018</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01151513821918871</v>
+        <v>0.0116906945066741</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03321486914437499</v>
+        <v>0.03450231041712731</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -1481,19 +1481,19 @@
         <v>3871</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>971</v>
+        <v>962</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9645</v>
+        <v>9900</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.008768097687078483</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002199027808903735</v>
+        <v>0.002179154008734147</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02184568885833947</v>
+        <v>0.0224229417771631</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>18</v>
@@ -1502,19 +1502,19 @@
         <v>18051</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>10935</v>
+        <v>11256</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>27994</v>
+        <v>28516</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01577626424442373</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.009557207448177146</v>
+        <v>0.009837528733049744</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02446695945497791</v>
+        <v>0.02492256654511724</v>
       </c>
     </row>
     <row r="15">
@@ -1531,19 +1531,19 @@
         <v>6144</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2935</v>
+        <v>2920</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12941</v>
+        <v>13270</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.008743106675045267</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.00417763403182716</v>
+        <v>0.004155556450472542</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0184167893572535</v>
+        <v>0.01888525921076123</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>9</v>
@@ -1552,19 +1552,19 @@
         <v>9527</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>4297</v>
+        <v>4246</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>18093</v>
+        <v>17940</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.0215781162944511</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.009732070014456386</v>
+        <v>0.00961780898376733</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.04097977901623288</v>
+        <v>0.04063314455373295</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>15</v>
@@ -1573,19 +1573,19 @@
         <v>15670</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>9118</v>
+        <v>9339</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>25309</v>
+        <v>25043</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.0136957392208803</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.007969357397113989</v>
+        <v>0.00816205184235399</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02211984094834457</v>
+        <v>0.02188735362230259</v>
       </c>
     </row>
     <row r="16">
@@ -1602,19 +1602,19 @@
         <v>28625</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20067</v>
+        <v>20401</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>39608</v>
+        <v>40675</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04073773195803661</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02855764550538055</v>
+        <v>0.02903391941018827</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0563677154213074</v>
+        <v>0.05788671023964394</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1623,19 +1623,19 @@
         <v>8140</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3898</v>
+        <v>3894</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15430</v>
+        <v>15969</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01843626545595899</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008828255286041458</v>
+        <v>0.008820425828232909</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03494898174987012</v>
+        <v>0.03616898038514802</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>37</v>
@@ -1644,19 +1644,19 @@
         <v>36765</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>26567</v>
+        <v>26363</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>51183</v>
+        <v>50464</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03213228699981519</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02321984744655645</v>
+        <v>0.02304125602400096</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04473334592242098</v>
+        <v>0.04410558144449105</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>653722</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>640404</v>
+        <v>637733</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>665742</v>
+        <v>664915</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9303395460198279</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.911386402626512</v>
+        <v>0.9075846486071464</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9474464392095771</v>
+        <v>0.9462696976865458</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>392</v>
@@ -1694,19 +1694,19 @@
         <v>419963</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>409962</v>
+        <v>408317</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>427448</v>
+        <v>427069</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9512175205625114</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9285662582045983</v>
+        <v>0.924840884903589</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.968172902352375</v>
+        <v>0.9673142408941429</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1003</v>
@@ -1715,19 +1715,19 @@
         <v>1073684</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1056411</v>
+        <v>1054263</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1088371</v>
+        <v>1087686</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9383957095348808</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9232988130619849</v>
+        <v>0.921421255153195</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9512319404596739</v>
+        <v>0.9506332968626312</v>
       </c>
     </row>
     <row r="18">
@@ -1819,19 +1819,19 @@
         <v>7600</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3730</v>
+        <v>3743</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14171</v>
+        <v>14426</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01834940827695074</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.009004329913957342</v>
+        <v>0.00903604355880208</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03421360862083458</v>
+        <v>0.03482908588230737</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -1853,19 +1853,19 @@
         <v>7600</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3734</v>
+        <v>3717</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>13802</v>
+        <v>13950</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01105159147869396</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.005429686287049303</v>
+        <v>0.005405437149652429</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0200695433257811</v>
+        <v>0.02028371331332923</v>
       </c>
     </row>
     <row r="20">
@@ -1882,19 +1882,19 @@
         <v>6417</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2078</v>
+        <v>2031</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>14955</v>
+        <v>17105</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01549155518262619</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.005017929971870613</v>
+        <v>0.004904321827685903</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03610506377599005</v>
+        <v>0.0412958103384691</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -1903,19 +1903,19 @@
         <v>3016</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8354</v>
+        <v>8033</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01102592271535611</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.003548722833028513</v>
+        <v>0.003527634246816127</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03054155244388031</v>
+        <v>0.02937020352294418</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>8</v>
@@ -1924,19 +1924,19 @@
         <v>9432</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4405</v>
+        <v>4105</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>20607</v>
+        <v>19488</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01371551057439645</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.006405815304461982</v>
+        <v>0.005969369384215335</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02996420600630427</v>
+        <v>0.02833687491210174</v>
       </c>
     </row>
     <row r="21">
@@ -1953,19 +1953,19 @@
         <v>10265</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5585</v>
+        <v>5377</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>19122</v>
+        <v>18132</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02478258189339567</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01348330945555735</v>
+        <v>0.0129808674490374</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0461664877275427</v>
+        <v>0.04377430150788567</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>5939</v>
+        <v>6858</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.007060322807296636</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02171404151860706</v>
+        <v>0.02507283913375838</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>13</v>
@@ -1995,19 +1995,19 @@
         <v>12196</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>6459</v>
+        <v>6789</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>19849</v>
+        <v>20310</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01773419111645423</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.009392051200076258</v>
+        <v>0.009872269008580388</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02886177817295615</v>
+        <v>0.02953155701103553</v>
       </c>
     </row>
     <row r="22">
@@ -2024,19 +2024,19 @@
         <v>389924</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>378396</v>
+        <v>377218</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>398265</v>
+        <v>397990</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9413764546470275</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9135443479904087</v>
+        <v>0.9107004441005798</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9615139007094304</v>
+        <v>0.9608491937341416</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>243</v>
@@ -2045,19 +2045,19 @@
         <v>268570</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>262302</v>
+        <v>261941</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>271574</v>
+        <v>271579</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9819137544773473</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9589952496718492</v>
+        <v>0.9576758067277498</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.992896324383754</v>
+        <v>0.9929138007643382</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>601</v>
@@ -2066,19 +2066,19 @@
         <v>658494</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>645685</v>
+        <v>646591</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>667869</v>
+        <v>667245</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9574987068304553</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9388729970721993</v>
+        <v>0.9401916796680715</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9711310512760664</v>
+        <v>0.9702232684285482</v>
       </c>
     </row>
     <row r="23">
@@ -2170,19 +2170,19 @@
         <v>56603</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>43714</v>
+        <v>43795</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>73111</v>
+        <v>72862</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02166623844286622</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0167327349221676</v>
+        <v>0.01676360485220937</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02798540019945641</v>
+        <v>0.0278897896184074</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>20</v>
@@ -2191,19 +2191,19 @@
         <v>20948</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>13003</v>
+        <v>12823</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>32624</v>
+        <v>31069</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01273129333575224</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.007902689858765567</v>
+        <v>0.00779354030259492</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01982726330228</v>
+        <v>0.01888243117554726</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>75</v>
@@ -2212,19 +2212,19 @@
         <v>77551</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>62815</v>
+        <v>62040</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>97739</v>
+        <v>96699</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01821346686955827</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01475255942624941</v>
+        <v>0.01457068234477628</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02295481739331988</v>
+        <v>0.02271068294904567</v>
       </c>
     </row>
     <row r="25">
@@ -2241,19 +2241,19 @@
         <v>66085</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>51546</v>
+        <v>51217</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>86196</v>
+        <v>83663</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02529589321015084</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01973050970160202</v>
+        <v>0.01960459357289565</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03299388461235356</v>
+        <v>0.0320243732161495</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>30</v>
@@ -2262,19 +2262,19 @@
         <v>31281</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>21546</v>
+        <v>21176</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>44585</v>
+        <v>43244</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01901116194899245</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01309449230622308</v>
+        <v>0.01286997352089849</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02709710586452493</v>
+        <v>0.02628178609907704</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>92</v>
@@ -2283,19 +2283,19 @@
         <v>97366</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>79029</v>
+        <v>78636</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>120485</v>
+        <v>120542</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02286725585600188</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01856076371437237</v>
+        <v>0.0184684215457797</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02829710520595434</v>
+        <v>0.02831026220165743</v>
       </c>
     </row>
     <row r="26">
@@ -2312,19 +2312,19 @@
         <v>86890</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>69197</v>
+        <v>69449</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>105844</v>
+        <v>105986</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03325970866408943</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02648706576543821</v>
+        <v>0.02658348844995897</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04051482600894223</v>
+        <v>0.04056889378572718</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>27</v>
@@ -2333,19 +2333,19 @@
         <v>27887</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>19480</v>
+        <v>19217</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>39275</v>
+        <v>39069</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01694862330033414</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01183889721460753</v>
+        <v>0.01167937175984559</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02386986268854481</v>
+        <v>0.02374436034912884</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>113</v>
@@ -2354,19 +2354,19 @@
         <v>114778</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>96800</v>
+        <v>93627</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>139590</v>
+        <v>135894</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02695654158263383</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02273445443401884</v>
+        <v>0.02198910219333502</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03278398147846651</v>
+        <v>0.03191588544981146</v>
       </c>
     </row>
     <row r="27">
@@ -2383,19 +2383,19 @@
         <v>2402906</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2373284</v>
+        <v>2376570</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2428090</v>
+        <v>2428291</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9197781596828936</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9084395760608556</v>
+        <v>0.9096975298157947</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9294180923208314</v>
+        <v>0.9294951873269355</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1442</v>
@@ -2404,19 +2404,19 @@
         <v>1565273</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1544840</v>
+        <v>1545913</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1580879</v>
+        <v>1580622</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9513089214149212</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9388902782035352</v>
+        <v>0.9395423411985451</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9607936100776047</v>
+        <v>0.9606374293237849</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>3696</v>
@@ -2425,19 +2425,19 @@
         <v>3968179</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>3930923</v>
+        <v>3931412</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>3997568</v>
+        <v>3999906</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.931962735691806</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9232129487275144</v>
+        <v>0.9233275683106166</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9388650884503751</v>
+        <v>0.939414120199237</v>
       </c>
     </row>
     <row r="28">
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5479</v>
+        <v>5059</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001244311611402613</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.006933619334950074</v>
+        <v>0.006401737281112097</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -2790,19 +2790,19 @@
         <v>4867</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1802</v>
+        <v>1840</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10587</v>
+        <v>9839</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.009423543833589336</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003488337748758373</v>
+        <v>0.003563284140174156</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0204983885624294</v>
+        <v>0.01904979803510514</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -2811,19 +2811,19 @@
         <v>5850</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1983</v>
+        <v>2747</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11796</v>
+        <v>12493</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004477161844148759</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001517549802017643</v>
+        <v>0.002102183710754389</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.009027343067692144</v>
+        <v>0.009560735896720039</v>
       </c>
     </row>
     <row r="5">
@@ -2840,19 +2840,19 @@
         <v>4784</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1852</v>
+        <v>1871</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10470</v>
+        <v>10481</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.006054186566917106</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.002343351206701113</v>
+        <v>0.002367309135225562</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01324863872879959</v>
+        <v>0.01326294121533341</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -2874,19 +2874,19 @@
         <v>4784</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10319</v>
+        <v>11347</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.003661262888964129</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.001430310378316746</v>
+        <v>0.001429468289528419</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.007896724609372067</v>
+        <v>0.008683558910009487</v>
       </c>
     </row>
     <row r="6">
@@ -2903,19 +2903,19 @@
         <v>7997</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3929</v>
+        <v>3869</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15911</v>
+        <v>15737</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01011972345691469</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.004972507439867474</v>
+        <v>0.004895543970592059</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02013477021443786</v>
+        <v>0.01991447070537795</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -2924,19 +2924,19 @@
         <v>6027</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2220</v>
+        <v>2146</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12884</v>
+        <v>13217</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01166983184606958</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.004298722228509954</v>
+        <v>0.004155930272205986</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02494485203817644</v>
+        <v>0.0255911502862155</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>14</v>
@@ -2945,19 +2945,19 @@
         <v>14024</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>7933</v>
+        <v>7950</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>23247</v>
+        <v>23262</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01073240544594879</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.006071241277956095</v>
+        <v>0.006083729714002989</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01779055522981879</v>
+        <v>0.01780188546137715</v>
       </c>
     </row>
     <row r="7">
@@ -2974,19 +2974,19 @@
         <v>776471</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>767688</v>
+        <v>768310</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>782409</v>
+        <v>782464</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9825817783647656</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9714677631829454</v>
+        <v>0.9722554508694309</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9900966383696079</v>
+        <v>0.9901660336771738</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>494</v>
@@ -2995,19 +2995,19 @@
         <v>505587</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>497358</v>
+        <v>497677</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>511261</v>
+        <v>510704</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.978906624320341</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9629752067685414</v>
+        <v>0.9635928885558708</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9898930143578316</v>
+        <v>0.9888155124761576</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1219</v>
@@ -3016,19 +3016,19 @@
         <v>1282057</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1272498</v>
+        <v>1271404</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1290372</v>
+        <v>1290114</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9811291698209383</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9738136965459794</v>
+        <v>0.9729767399085982</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9874925232039929</v>
+        <v>0.9872950474633048</v>
       </c>
     </row>
     <row r="8">
@@ -3133,19 +3133,19 @@
         <v>2936</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8035</v>
+        <v>7783</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.005639489506414057</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.001741649064025306</v>
+        <v>0.001729120995719973</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01543500911322581</v>
+        <v>0.01495202118928158</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>3</v>
@@ -3157,16 +3157,16 @@
         <v>915</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>8117</v>
+        <v>7898</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.002434504633703768</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0007591453039746053</v>
+        <v>0.0007585590027813891</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.006731838852842204</v>
+        <v>0.006550038982496694</v>
       </c>
     </row>
     <row r="10">
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6431</v>
+        <v>5634</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002172588301352727</v>
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0123546329701858</v>
+        <v>0.01082319605361745</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -3220,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5670</v>
+        <v>5665</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0009378821045341399</v>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.004702174090576859</v>
+        <v>0.004697742254358389</v>
       </c>
     </row>
     <row r="11">
@@ -3246,19 +3246,19 @@
         <v>8111</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3109</v>
+        <v>3250</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>16219</v>
+        <v>18470</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01183588256796025</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.00453683001419176</v>
+        <v>0.004742588299779445</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02366734636371803</v>
+        <v>0.02695272520440254</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -3267,19 +3267,19 @@
         <v>2875</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8743</v>
+        <v>8732</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.005523636432709728</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.00170810363957567</v>
+        <v>0.001687195883925537</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01679498095770625</v>
+        <v>0.01677450449596651</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>10</v>
@@ -3288,19 +3288,19 @@
         <v>10986</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5866</v>
+        <v>4988</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>20451</v>
+        <v>19336</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.00911095641145827</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004865108169795869</v>
+        <v>0.004136406597017585</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01695995123243616</v>
+        <v>0.01603538734073273</v>
       </c>
     </row>
     <row r="12">
@@ -3317,19 +3317,19 @@
         <v>677176</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>669068</v>
+        <v>666817</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>682178</v>
+        <v>682037</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9881641174320398</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9763326536362822</v>
+        <v>0.9730472747955975</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9954631699858083</v>
+        <v>0.9952574117002205</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>499</v>
@@ -3338,19 +3338,19 @@
         <v>513602</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>506511</v>
+        <v>507024</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>517524</v>
+        <v>517698</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9866642857595235</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9730414780043934</v>
+        <v>0.9740277042515858</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9941979582694842</v>
+        <v>0.9945324789910802</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1152</v>
@@ -3359,19 +3359,19 @@
         <v>1190778</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1179892</v>
+        <v>1181441</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1196639</v>
+        <v>1197576</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9875166568503039</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9784887648084731</v>
+        <v>0.9797734554051147</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9923770197416343</v>
+        <v>0.9931542747459386</v>
       </c>
     </row>
     <row r="13">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6108</v>
+        <v>5126</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.00148617837534343</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.00889500883010976</v>
+        <v>0.007464459475238569</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7238</v>
+        <v>7064</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.003512479709183551</v>
@@ -3496,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01752747250180582</v>
+        <v>0.01710610767950158</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>8502</v>
+        <v>9084</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.002247140708254926</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.007731590495591089</v>
+        <v>0.00826034371244439</v>
       </c>
     </row>
     <row r="15">
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7853</v>
+        <v>6826</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.002863394336988811</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01143590864531971</v>
+        <v>0.009940189986739069</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>6052</v>
+        <v>6077</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.001788067978400679</v>
@@ -3580,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.005503392382400963</v>
+        <v>0.005526017176387496</v>
       </c>
     </row>
     <row r="16">
@@ -3597,19 +3597,19 @@
         <v>5573</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2192</v>
+        <v>2142</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12389</v>
+        <v>12994</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.008116059993165215</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003192303442853613</v>
+        <v>0.003118695470115811</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01804116049401655</v>
+        <v>0.01892178724142782</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -3631,19 +3631,19 @@
         <v>5573</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2129</v>
+        <v>1930</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12825</v>
+        <v>13430</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.005068134275846431</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001935913983563873</v>
+        <v>0.001755481539556828</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01166273070316905</v>
+        <v>0.01221266401684997</v>
       </c>
     </row>
     <row r="17">
@@ -3660,19 +3660,19 @@
         <v>678139</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>669815</v>
+        <v>670861</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>682519</v>
+        <v>682889</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9875343672945025</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9754122144273047</v>
+        <v>0.9769366109367624</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9939131143142136</v>
+        <v>0.9944519452934203</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>406</v>
@@ -3681,7 +3681,7 @@
         <v>411523</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>405736</v>
+        <v>405910</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>412974</v>
@@ -3690,7 +3690,7 @@
         <v>0.9964875202908164</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9824725274981941</v>
+        <v>0.9828938923204985</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -3702,19 +3702,19 @@
         <v>1089662</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1081067</v>
+        <v>1080537</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1095269</v>
+        <v>1095028</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.990896657037498</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9830803982583149</v>
+        <v>0.9825984305357838</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9959948470997672</v>
+        <v>0.9957757999036514</v>
       </c>
     </row>
     <row r="18">
@@ -3809,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5318</v>
+        <v>4619</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.002337451247305219</v>
@@ -3818,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01334275211603849</v>
+        <v>0.01158944009226103</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -3843,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5066</v>
+        <v>5635</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.001394113784619247</v>
@@ -3852,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.007580896551387888</v>
+        <v>0.008432143854784536</v>
       </c>
     </row>
     <row r="20">
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6725</v>
+        <v>6247</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.002747654801427234</v>
@@ -3928,7 +3928,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01687191598262905</v>
+        <v>0.01567248784320509</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>0</v>
@@ -3953,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>5484</v>
+        <v>4939</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.001638769338381321</v>
@@ -3962,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.008205713316899553</v>
+        <v>0.007391219986757281</v>
       </c>
     </row>
     <row r="22">
@@ -3979,7 +3979,7 @@
         <v>396546</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>390671</v>
+        <v>391344</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>398573</v>
@@ -3988,7 +3988,7 @@
         <v>0.9949148939512675</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9801747802560433</v>
+        <v>0.9818621380650373</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -4013,7 +4013,7 @@
         <v>666244</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>661107</v>
+        <v>661929</v>
       </c>
       <c r="T22" s="5" t="n">
         <v>668271</v>
@@ -4022,7 +4022,7 @@
         <v>0.9969671168769995</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9892794559135025</v>
+        <v>0.9905102016409643</v>
       </c>
       <c r="W22" s="6" t="n">
         <v>1</v>
@@ -4117,19 +4117,19 @@
         <v>2936</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8761</v>
+        <v>7836</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.001146324488577927</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0003638901243414171</v>
+        <v>0.0003626896295777934</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.003421069147386338</v>
+        <v>0.003059956044803443</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>9</v>
@@ -4138,19 +4138,19 @@
         <v>9253</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4126</v>
+        <v>4098</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>18525</v>
+        <v>17885</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.005380743641482126</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.002399540894282065</v>
+        <v>0.002383195264304862</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01077232934947855</v>
+        <v>0.01040019751348332</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>12</v>
@@ -4159,19 +4159,19 @@
         <v>12189</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>6411</v>
+        <v>6753</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>20026</v>
+        <v>21148</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.002847511288728179</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.001497619688805657</v>
+        <v>0.001577519634040052</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.004678470991971758</v>
+        <v>0.004940622666550393</v>
       </c>
     </row>
     <row r="25">
@@ -4188,19 +4188,19 @@
         <v>6751</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2907</v>
+        <v>2880</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>13459</v>
+        <v>13488</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.002636104292177121</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001135320900811561</v>
+        <v>0.001124744133762619</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.00525573113639609</v>
+        <v>0.0052670483432953</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -4212,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>5628</v>
+        <v>6787</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0006576319293064043</v>
@@ -4221,7 +4221,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.003272790843419892</v>
+        <v>0.003946528218023202</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>8</v>
@@ -4230,19 +4230,19 @@
         <v>7881</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3857</v>
+        <v>3849</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>15332</v>
+        <v>14752</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.001841248859438648</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0009011311152329743</v>
+        <v>0.0008992121728562058</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.003581749712909329</v>
+        <v>0.003446329537615861</v>
       </c>
     </row>
     <row r="26">
@@ -4259,19 +4259,19 @@
         <v>22776</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>14307</v>
+        <v>13648</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>34860</v>
+        <v>35355</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.008894259726156824</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.005587130125504306</v>
+        <v>0.005329572362322701</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01361308979729376</v>
+        <v>0.01380609251910591</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>9</v>
@@ -4280,19 +4280,19 @@
         <v>8903</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4030</v>
+        <v>3872</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>16348</v>
+        <v>16278</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.005176809367679084</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002343568227643531</v>
+        <v>0.002251482802239001</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.009506183710935532</v>
+        <v>0.009465730979322106</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>30</v>
@@ -4301,19 +4301,19 @@
         <v>31679</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>21985</v>
+        <v>22206</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>43632</v>
+        <v>46262</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.007400766226412296</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.005136207629076714</v>
+        <v>0.005187631506695373</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01019328326130976</v>
+        <v>0.01080762498460253</v>
       </c>
     </row>
     <row r="27">
@@ -4330,19 +4330,19 @@
         <v>2528332</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2515031</v>
+        <v>2514081</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2538716</v>
+        <v>2539103</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9873233114930882</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9821294840869202</v>
+        <v>0.9817582069912025</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9913784691133822</v>
+        <v>0.9915297116833467</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1657</v>
@@ -4351,19 +4351,19 @@
         <v>1700409</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1689605</v>
+        <v>1690356</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1707648</v>
+        <v>1707740</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9887848150615324</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9825019284863566</v>
+        <v>0.9829389087157161</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9929940367560702</v>
+        <v>0.9930477938527846</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>4039</v>
@@ -4372,19 +4372,19 @@
         <v>4228741</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>4212916</v>
+        <v>4212814</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>4241430</v>
+        <v>4243324</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9879104736254208</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9842134978088942</v>
+        <v>0.9841896117248904</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9908747854365861</v>
+        <v>0.9913173283471626</v>
       </c>
     </row>
     <row r="28">
